--- a/todouhuken.xlsx
+++ b/todouhuken.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryoku\PycharmProjects\Study-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F4B0B7-9392-46DB-9024-ADAD38BE87D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3888B65E-5B01-4405-A32F-86E3FA2F21BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="都道府県" sheetId="1" r:id="rId1"/>
+    <sheet name="県庁所在地" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="299">
   <si>
     <t>都道府県コード</t>
   </si>
@@ -914,6 +915,10 @@
   </si>
   <si>
     <t>naha</t>
+  </si>
+  <si>
+    <t>県庁所在地 市区町村あり</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -1911,7 +1916,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1945,7 +1950,7 @@
         <v>192</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>192</v>
+        <v>298</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>258</v>
@@ -3314,6 +3319,845 @@
         <v>277</v>
       </c>
       <c r="I48" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>297</v>
       </c>
     </row>

--- a/todouhuken.xlsx
+++ b/todouhuken.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryoku\PycharmProjects\Study-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3888B65E-5B01-4405-A32F-86E3FA2F21BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CD6454-0BBF-4D54-9A38-4763693255ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="都道府県" sheetId="1" r:id="rId1"/>
@@ -29,895 +29,896 @@
     <t>都道府県 県なし</t>
   </si>
   <si>
+    <t>都道府県 ひらがな</t>
+  </si>
+  <si>
+    <t>都道府県 ローマ字</t>
+  </si>
+  <si>
+    <t>北海道</t>
+  </si>
+  <si>
+    <t>ほっかいどう</t>
+  </si>
+  <si>
+    <t>hokkaido</t>
+  </si>
+  <si>
+    <t>青森</t>
+  </si>
+  <si>
+    <t>青森県</t>
+  </si>
+  <si>
+    <t>あおもり</t>
+  </si>
+  <si>
+    <t>aomori</t>
+  </si>
+  <si>
+    <t>岩手</t>
+  </si>
+  <si>
+    <t>岩手県</t>
+  </si>
+  <si>
+    <t>いわて</t>
+  </si>
+  <si>
+    <t>iwate</t>
+  </si>
+  <si>
+    <t>宮城</t>
+  </si>
+  <si>
+    <t>宮城県</t>
+  </si>
+  <si>
+    <t>みやぎ</t>
+  </si>
+  <si>
+    <t>miyagi</t>
+  </si>
+  <si>
+    <t>秋田</t>
+  </si>
+  <si>
+    <t>秋田県</t>
+  </si>
+  <si>
+    <t>あきた</t>
+  </si>
+  <si>
+    <t>akita</t>
+  </si>
+  <si>
+    <t>山形</t>
+  </si>
+  <si>
+    <t>山形県</t>
+  </si>
+  <si>
+    <t>やまがた</t>
+  </si>
+  <si>
+    <t>yamagata</t>
+  </si>
+  <si>
+    <t>福島</t>
+  </si>
+  <si>
+    <t>福島県</t>
+  </si>
+  <si>
+    <t>ふくしま</t>
+  </si>
+  <si>
+    <t>fukushima</t>
+  </si>
+  <si>
+    <t>茨城</t>
+  </si>
+  <si>
+    <t>茨城県</t>
+  </si>
+  <si>
+    <t>いばらき</t>
+  </si>
+  <si>
+    <t>ibaraki</t>
+  </si>
+  <si>
+    <t>栃木</t>
+  </si>
+  <si>
+    <t>栃木県</t>
+  </si>
+  <si>
+    <t>とちぎ</t>
+  </si>
+  <si>
+    <t>tochigi</t>
+  </si>
+  <si>
+    <t>群馬</t>
+  </si>
+  <si>
+    <t>群馬県</t>
+  </si>
+  <si>
+    <t>ぐんま</t>
+  </si>
+  <si>
+    <t>gunma</t>
+  </si>
+  <si>
+    <t>埼玉</t>
+  </si>
+  <si>
+    <t>埼玉県</t>
+  </si>
+  <si>
+    <t>さいたま</t>
+  </si>
+  <si>
+    <t>saitama</t>
+  </si>
+  <si>
+    <t>千葉</t>
+  </si>
+  <si>
+    <t>千葉県</t>
+  </si>
+  <si>
+    <t>ちば</t>
+  </si>
+  <si>
+    <t>chiba</t>
+  </si>
+  <si>
+    <t>東京</t>
+  </si>
+  <si>
+    <t>東京都</t>
+  </si>
+  <si>
+    <t>とうきょう</t>
+  </si>
+  <si>
+    <t>tokyo</t>
+  </si>
+  <si>
+    <t>神奈川</t>
+  </si>
+  <si>
+    <t>神奈川県</t>
+  </si>
+  <si>
+    <t>かながわ</t>
+  </si>
+  <si>
+    <t>kanagawa</t>
+  </si>
+  <si>
+    <t>新潟</t>
+  </si>
+  <si>
+    <t>新潟県</t>
+  </si>
+  <si>
+    <t>にいがた</t>
+  </si>
+  <si>
+    <t>niigata</t>
+  </si>
+  <si>
+    <t>富山</t>
+  </si>
+  <si>
+    <t>富山県</t>
+  </si>
+  <si>
+    <t>とやま</t>
+  </si>
+  <si>
+    <t>toyama</t>
+  </si>
+  <si>
+    <t>石川</t>
+  </si>
+  <si>
+    <t>石川県</t>
+  </si>
+  <si>
+    <t>いしかわ</t>
+  </si>
+  <si>
+    <t>ishikawa</t>
+  </si>
+  <si>
+    <t>福井</t>
+  </si>
+  <si>
+    <t>福井県</t>
+  </si>
+  <si>
+    <t>ふくい</t>
+  </si>
+  <si>
+    <t>fukui</t>
+  </si>
+  <si>
+    <t>山梨</t>
+  </si>
+  <si>
+    <t>山梨県</t>
+  </si>
+  <si>
+    <t>やまなし</t>
+  </si>
+  <si>
+    <t>yamanashi</t>
+  </si>
+  <si>
+    <t>長野</t>
+  </si>
+  <si>
+    <t>長野県</t>
+  </si>
+  <si>
+    <t>ながの</t>
+  </si>
+  <si>
+    <t>nagano</t>
+  </si>
+  <si>
+    <t>岐阜</t>
+  </si>
+  <si>
+    <t>岐阜県</t>
+  </si>
+  <si>
+    <t>ぎふ</t>
+  </si>
+  <si>
+    <t>gifu</t>
+  </si>
+  <si>
+    <t>静岡</t>
+  </si>
+  <si>
+    <t>静岡県</t>
+  </si>
+  <si>
+    <t>しずおか</t>
+  </si>
+  <si>
+    <t>shizuoka</t>
+  </si>
+  <si>
+    <t>愛知</t>
+  </si>
+  <si>
+    <t>愛知県</t>
+  </si>
+  <si>
+    <t>あいち</t>
+  </si>
+  <si>
+    <t>aichi</t>
+  </si>
+  <si>
+    <t>三重</t>
+  </si>
+  <si>
+    <t>三重県</t>
+  </si>
+  <si>
+    <t>みえ</t>
+  </si>
+  <si>
+    <t>mie</t>
+  </si>
+  <si>
+    <t>滋賀</t>
+  </si>
+  <si>
+    <t>滋賀県</t>
+  </si>
+  <si>
+    <t>しが</t>
+  </si>
+  <si>
+    <t>shiga</t>
+  </si>
+  <si>
+    <t>京都</t>
+  </si>
+  <si>
+    <t>京都府</t>
+  </si>
+  <si>
+    <t>きょうと</t>
+  </si>
+  <si>
+    <t>kyoto</t>
+  </si>
+  <si>
+    <t>大阪</t>
+  </si>
+  <si>
+    <t>大阪府</t>
+  </si>
+  <si>
+    <t>おおさか</t>
+  </si>
+  <si>
+    <t>osaka</t>
+  </si>
+  <si>
+    <t>兵庫</t>
+  </si>
+  <si>
+    <t>兵庫県</t>
+  </si>
+  <si>
+    <t>ひょうご</t>
+  </si>
+  <si>
+    <t>hyogo</t>
+  </si>
+  <si>
+    <t>奈良</t>
+  </si>
+  <si>
+    <t>奈良県</t>
+  </si>
+  <si>
+    <t>なら</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>和歌山</t>
+  </si>
+  <si>
+    <t>和歌山県</t>
+  </si>
+  <si>
+    <t>わやかま</t>
+  </si>
+  <si>
+    <t>wakayama</t>
+  </si>
+  <si>
+    <t>鳥取</t>
+  </si>
+  <si>
+    <t>鳥取県</t>
+  </si>
+  <si>
+    <t>とっとり</t>
+  </si>
+  <si>
+    <t>tottori</t>
+  </si>
+  <si>
+    <t>島根</t>
+  </si>
+  <si>
+    <t>島根県</t>
+  </si>
+  <si>
+    <t>しまね</t>
+  </si>
+  <si>
+    <t>shimane</t>
+  </si>
+  <si>
+    <t>岡山</t>
+  </si>
+  <si>
+    <t>岡山県</t>
+  </si>
+  <si>
+    <t>おかやま</t>
+  </si>
+  <si>
+    <t>okayama</t>
+  </si>
+  <si>
+    <t>広島</t>
+  </si>
+  <si>
+    <t>広島県</t>
+  </si>
+  <si>
+    <t>ひろしま</t>
+  </si>
+  <si>
+    <t>hiroshima</t>
+  </si>
+  <si>
+    <t>山口</t>
+  </si>
+  <si>
+    <t>山口県</t>
+  </si>
+  <si>
+    <t>やまぐち</t>
+  </si>
+  <si>
+    <t>yamaguchi</t>
+  </si>
+  <si>
+    <t>徳島</t>
+  </si>
+  <si>
+    <t>徳島県</t>
+  </si>
+  <si>
+    <t>とくしま</t>
+  </si>
+  <si>
+    <t>tokushima</t>
+  </si>
+  <si>
+    <t>香川</t>
+  </si>
+  <si>
+    <t>香川県</t>
+  </si>
+  <si>
+    <t>かがわ</t>
+  </si>
+  <si>
+    <t>kagawa</t>
+  </si>
+  <si>
+    <t>愛媛</t>
+  </si>
+  <si>
+    <t>愛媛県</t>
+  </si>
+  <si>
+    <t>えひめ</t>
+  </si>
+  <si>
+    <t>ehime</t>
+  </si>
+  <si>
+    <t>高知</t>
+  </si>
+  <si>
+    <t>高知県</t>
+  </si>
+  <si>
+    <t>こうち</t>
+  </si>
+  <si>
+    <t>kochi</t>
+  </si>
+  <si>
+    <t>福岡</t>
+  </si>
+  <si>
+    <t>福岡県</t>
+  </si>
+  <si>
+    <t>ふくおか</t>
+  </si>
+  <si>
+    <t>fukuoka</t>
+  </si>
+  <si>
+    <t>佐賀</t>
+  </si>
+  <si>
+    <t>佐賀県</t>
+  </si>
+  <si>
+    <t>さが</t>
+  </si>
+  <si>
+    <t>saga</t>
+  </si>
+  <si>
+    <t>長崎</t>
+  </si>
+  <si>
+    <t>長崎県</t>
+  </si>
+  <si>
+    <t>ながさき</t>
+  </si>
+  <si>
+    <t>nagasaki</t>
+  </si>
+  <si>
+    <t>熊本</t>
+  </si>
+  <si>
+    <t>熊本県</t>
+  </si>
+  <si>
+    <t>くまもと</t>
+  </si>
+  <si>
+    <t>kumamoto</t>
+  </si>
+  <si>
+    <t>大分</t>
+  </si>
+  <si>
+    <t>大分県</t>
+  </si>
+  <si>
+    <t>おおいた</t>
+  </si>
+  <si>
+    <t>oita</t>
+  </si>
+  <si>
+    <t>宮崎</t>
+  </si>
+  <si>
+    <t>宮崎県</t>
+  </si>
+  <si>
+    <t>みやざき</t>
+  </si>
+  <si>
+    <t>miyazaki</t>
+  </si>
+  <si>
+    <t>鹿児島</t>
+  </si>
+  <si>
+    <t>鹿児島県</t>
+  </si>
+  <si>
+    <t>かごしま</t>
+  </si>
+  <si>
+    <t>kagoshima</t>
+  </si>
+  <si>
+    <t>沖縄</t>
+  </si>
+  <si>
+    <t>沖縄県</t>
+  </si>
+  <si>
+    <t>おきなわ</t>
+  </si>
+  <si>
+    <t>okinawa</t>
+  </si>
+  <si>
+    <t>県庁所在地 市区町村なし</t>
+  </si>
+  <si>
+    <t>札幌</t>
+  </si>
+  <si>
+    <t>盛岡</t>
+  </si>
+  <si>
+    <t>仙台</t>
+  </si>
+  <si>
+    <t>水戸</t>
+  </si>
+  <si>
+    <t>宇都宮</t>
+  </si>
+  <si>
+    <t>前橋</t>
+  </si>
+  <si>
+    <t>新宿</t>
+  </si>
+  <si>
+    <t>横浜</t>
+  </si>
+  <si>
+    <t>金沢</t>
+  </si>
+  <si>
+    <t>甲府</t>
+  </si>
+  <si>
+    <t>名古屋</t>
+  </si>
+  <si>
+    <t>津</t>
+  </si>
+  <si>
+    <t>大津</t>
+  </si>
+  <si>
+    <t>神戸</t>
+  </si>
+  <si>
+    <t>松江</t>
+  </si>
+  <si>
+    <t>高松</t>
+  </si>
+  <si>
+    <t>松山</t>
+  </si>
+  <si>
+    <t>那覇</t>
+  </si>
+  <si>
+    <t>札幌市</t>
+  </si>
+  <si>
+    <t>青森市</t>
+  </si>
+  <si>
+    <t>盛岡市</t>
+  </si>
+  <si>
+    <t>仙台市</t>
+  </si>
+  <si>
+    <t>秋田市</t>
+  </si>
+  <si>
+    <t>山形市</t>
+  </si>
+  <si>
+    <t>福島市</t>
+  </si>
+  <si>
+    <t>水戸市</t>
+  </si>
+  <si>
+    <t>宇都宮市</t>
+  </si>
+  <si>
+    <t>前橋市</t>
+  </si>
+  <si>
+    <t>さいたま市</t>
+  </si>
+  <si>
+    <t>千葉市</t>
+  </si>
+  <si>
+    <t>新宿区</t>
+  </si>
+  <si>
+    <t>横浜市</t>
+  </si>
+  <si>
+    <t>新潟市</t>
+  </si>
+  <si>
+    <t>富山市</t>
+  </si>
+  <si>
+    <t>金沢市</t>
+  </si>
+  <si>
+    <t>福井市</t>
+  </si>
+  <si>
+    <t>甲府市</t>
+  </si>
+  <si>
+    <t>長野市</t>
+  </si>
+  <si>
+    <t>岐阜市</t>
+  </si>
+  <si>
+    <t>静岡市</t>
+  </si>
+  <si>
+    <t>名古屋市</t>
+  </si>
+  <si>
+    <t>津市</t>
+  </si>
+  <si>
+    <t>大津市</t>
+  </si>
+  <si>
+    <t>京都市</t>
+  </si>
+  <si>
+    <t>大阪市</t>
+  </si>
+  <si>
+    <t>神戸市</t>
+  </si>
+  <si>
+    <t>奈良市</t>
+  </si>
+  <si>
+    <t>和歌山市</t>
+  </si>
+  <si>
+    <t>鳥取市</t>
+  </si>
+  <si>
+    <t>松江市</t>
+  </si>
+  <si>
+    <t>岡山市</t>
+  </si>
+  <si>
+    <t>広島市</t>
+  </si>
+  <si>
+    <t>山口市</t>
+  </si>
+  <si>
+    <t>徳島市</t>
+  </si>
+  <si>
+    <t>高松市</t>
+  </si>
+  <si>
+    <t>松山市</t>
+  </si>
+  <si>
+    <t>高知市</t>
+  </si>
+  <si>
+    <t>福岡市</t>
+  </si>
+  <si>
+    <t>佐賀市</t>
+  </si>
+  <si>
+    <t>長崎市</t>
+  </si>
+  <si>
+    <t>熊本市</t>
+  </si>
+  <si>
+    <t>大分市</t>
+  </si>
+  <si>
+    <t>宮崎市</t>
+  </si>
+  <si>
+    <t>鹿児島市</t>
+  </si>
+  <si>
+    <t>那覇市</t>
+  </si>
+  <si>
+    <t>県庁所在地 ひらがな</t>
+  </si>
+  <si>
+    <t>さっぽろ</t>
+  </si>
+  <si>
+    <t>もりおか</t>
+  </si>
+  <si>
+    <t>せんだい</t>
+  </si>
+  <si>
+    <t>みと</t>
+  </si>
+  <si>
+    <t>うつのみや</t>
+  </si>
+  <si>
+    <t>まえばし</t>
+  </si>
+  <si>
+    <t>しんじゅく</t>
+  </si>
+  <si>
+    <t>よこはま</t>
+  </si>
+  <si>
+    <t>かなざわ</t>
+  </si>
+  <si>
+    <t>こうふ</t>
+  </si>
+  <si>
+    <t>なごや</t>
+  </si>
+  <si>
+    <t>つ</t>
+  </si>
+  <si>
+    <t>おおつ</t>
+  </si>
+  <si>
+    <t>こうべ</t>
+  </si>
+  <si>
+    <t>わかやま</t>
+  </si>
+  <si>
+    <t>まつえ</t>
+  </si>
+  <si>
+    <t>たかまつ</t>
+  </si>
+  <si>
+    <t>まつやま</t>
+  </si>
+  <si>
+    <t>なは</t>
+  </si>
+  <si>
+    <t>県庁所在地 ローマ字</t>
+  </si>
+  <si>
+    <t>sapporo</t>
+  </si>
+  <si>
+    <t>morioka</t>
+  </si>
+  <si>
+    <t>sendai</t>
+  </si>
+  <si>
+    <t>mito</t>
+  </si>
+  <si>
+    <t>utsunomiya</t>
+  </si>
+  <si>
+    <t>maebashi</t>
+  </si>
+  <si>
+    <t>shinjuku</t>
+  </si>
+  <si>
+    <t>yokohama</t>
+  </si>
+  <si>
+    <t>kanazawa</t>
+  </si>
+  <si>
+    <t>kofu</t>
+  </si>
+  <si>
+    <t>nagoya</t>
+  </si>
+  <si>
+    <t>tsu</t>
+  </si>
+  <si>
+    <t>otsu</t>
+  </si>
+  <si>
+    <t>kyouto</t>
+  </si>
+  <si>
+    <t>koube</t>
+  </si>
+  <si>
+    <t>matsue</t>
+  </si>
+  <si>
+    <t>takamatsu</t>
+  </si>
+  <si>
+    <t>matsuyama</t>
+  </si>
+  <si>
+    <t>naha</t>
+  </si>
+  <si>
+    <t>県庁所在地 市区町村あり</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>都道府県 県あり</t>
-  </si>
-  <si>
-    <t>都道府県 ひらがな</t>
-  </si>
-  <si>
-    <t>都道府県 ローマ字</t>
-  </si>
-  <si>
-    <t>北海道</t>
-  </si>
-  <si>
-    <t>ほっかいどう</t>
-  </si>
-  <si>
-    <t>hokkaido</t>
-  </si>
-  <si>
-    <t>青森</t>
-  </si>
-  <si>
-    <t>青森県</t>
-  </si>
-  <si>
-    <t>あおもり</t>
-  </si>
-  <si>
-    <t>aomori</t>
-  </si>
-  <si>
-    <t>岩手</t>
-  </si>
-  <si>
-    <t>岩手県</t>
-  </si>
-  <si>
-    <t>いわて</t>
-  </si>
-  <si>
-    <t>iwate</t>
-  </si>
-  <si>
-    <t>宮城</t>
-  </si>
-  <si>
-    <t>宮城県</t>
-  </si>
-  <si>
-    <t>みやぎ</t>
-  </si>
-  <si>
-    <t>miyagi</t>
-  </si>
-  <si>
-    <t>秋田</t>
-  </si>
-  <si>
-    <t>秋田県</t>
-  </si>
-  <si>
-    <t>あきた</t>
-  </si>
-  <si>
-    <t>akita</t>
-  </si>
-  <si>
-    <t>山形</t>
-  </si>
-  <si>
-    <t>山形県</t>
-  </si>
-  <si>
-    <t>やまがた</t>
-  </si>
-  <si>
-    <t>yamagata</t>
-  </si>
-  <si>
-    <t>福島</t>
-  </si>
-  <si>
-    <t>福島県</t>
-  </si>
-  <si>
-    <t>ふくしま</t>
-  </si>
-  <si>
-    <t>fukushima</t>
-  </si>
-  <si>
-    <t>茨城</t>
-  </si>
-  <si>
-    <t>茨城県</t>
-  </si>
-  <si>
-    <t>いばらき</t>
-  </si>
-  <si>
-    <t>ibaraki</t>
-  </si>
-  <si>
-    <t>栃木</t>
-  </si>
-  <si>
-    <t>栃木県</t>
-  </si>
-  <si>
-    <t>とちぎ</t>
-  </si>
-  <si>
-    <t>tochigi</t>
-  </si>
-  <si>
-    <t>群馬</t>
-  </si>
-  <si>
-    <t>群馬県</t>
-  </si>
-  <si>
-    <t>ぐんま</t>
-  </si>
-  <si>
-    <t>gunma</t>
-  </si>
-  <si>
-    <t>埼玉</t>
-  </si>
-  <si>
-    <t>埼玉県</t>
-  </si>
-  <si>
-    <t>さいたま</t>
-  </si>
-  <si>
-    <t>saitama</t>
-  </si>
-  <si>
-    <t>千葉</t>
-  </si>
-  <si>
-    <t>千葉県</t>
-  </si>
-  <si>
-    <t>ちば</t>
-  </si>
-  <si>
-    <t>chiba</t>
-  </si>
-  <si>
-    <t>東京</t>
-  </si>
-  <si>
-    <t>東京都</t>
-  </si>
-  <si>
-    <t>とうきょう</t>
-  </si>
-  <si>
-    <t>tokyo</t>
-  </si>
-  <si>
-    <t>神奈川</t>
-  </si>
-  <si>
-    <t>神奈川県</t>
-  </si>
-  <si>
-    <t>かながわ</t>
-  </si>
-  <si>
-    <t>kanagawa</t>
-  </si>
-  <si>
-    <t>新潟</t>
-  </si>
-  <si>
-    <t>新潟県</t>
-  </si>
-  <si>
-    <t>にいがた</t>
-  </si>
-  <si>
-    <t>niigata</t>
-  </si>
-  <si>
-    <t>富山</t>
-  </si>
-  <si>
-    <t>富山県</t>
-  </si>
-  <si>
-    <t>とやま</t>
-  </si>
-  <si>
-    <t>toyama</t>
-  </si>
-  <si>
-    <t>石川</t>
-  </si>
-  <si>
-    <t>石川県</t>
-  </si>
-  <si>
-    <t>いしかわ</t>
-  </si>
-  <si>
-    <t>ishikawa</t>
-  </si>
-  <si>
-    <t>福井</t>
-  </si>
-  <si>
-    <t>福井県</t>
-  </si>
-  <si>
-    <t>ふくい</t>
-  </si>
-  <si>
-    <t>fukui</t>
-  </si>
-  <si>
-    <t>山梨</t>
-  </si>
-  <si>
-    <t>山梨県</t>
-  </si>
-  <si>
-    <t>やまなし</t>
-  </si>
-  <si>
-    <t>yamanashi</t>
-  </si>
-  <si>
-    <t>長野</t>
-  </si>
-  <si>
-    <t>長野県</t>
-  </si>
-  <si>
-    <t>ながの</t>
-  </si>
-  <si>
-    <t>nagano</t>
-  </si>
-  <si>
-    <t>岐阜</t>
-  </si>
-  <si>
-    <t>岐阜県</t>
-  </si>
-  <si>
-    <t>ぎふ</t>
-  </si>
-  <si>
-    <t>gifu</t>
-  </si>
-  <si>
-    <t>静岡</t>
-  </si>
-  <si>
-    <t>静岡県</t>
-  </si>
-  <si>
-    <t>しずおか</t>
-  </si>
-  <si>
-    <t>shizuoka</t>
-  </si>
-  <si>
-    <t>愛知</t>
-  </si>
-  <si>
-    <t>愛知県</t>
-  </si>
-  <si>
-    <t>あいち</t>
-  </si>
-  <si>
-    <t>aichi</t>
-  </si>
-  <si>
-    <t>三重</t>
-  </si>
-  <si>
-    <t>三重県</t>
-  </si>
-  <si>
-    <t>みえ</t>
-  </si>
-  <si>
-    <t>mie</t>
-  </si>
-  <si>
-    <t>滋賀</t>
-  </si>
-  <si>
-    <t>滋賀県</t>
-  </si>
-  <si>
-    <t>しが</t>
-  </si>
-  <si>
-    <t>shiga</t>
-  </si>
-  <si>
-    <t>京都</t>
-  </si>
-  <si>
-    <t>京都府</t>
-  </si>
-  <si>
-    <t>きょうと</t>
-  </si>
-  <si>
-    <t>kyoto</t>
-  </si>
-  <si>
-    <t>大阪</t>
-  </si>
-  <si>
-    <t>大阪府</t>
-  </si>
-  <si>
-    <t>おおさか</t>
-  </si>
-  <si>
-    <t>osaka</t>
-  </si>
-  <si>
-    <t>兵庫</t>
-  </si>
-  <si>
-    <t>兵庫県</t>
-  </si>
-  <si>
-    <t>ひょうご</t>
-  </si>
-  <si>
-    <t>hyogo</t>
-  </si>
-  <si>
-    <t>奈良</t>
-  </si>
-  <si>
-    <t>奈良県</t>
-  </si>
-  <si>
-    <t>なら</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>和歌山</t>
-  </si>
-  <si>
-    <t>和歌山県</t>
-  </si>
-  <si>
-    <t>わやかま</t>
-  </si>
-  <si>
-    <t>wakayama</t>
-  </si>
-  <si>
-    <t>鳥取</t>
-  </si>
-  <si>
-    <t>鳥取県</t>
-  </si>
-  <si>
-    <t>とっとり</t>
-  </si>
-  <si>
-    <t>tottori</t>
-  </si>
-  <si>
-    <t>島根</t>
-  </si>
-  <si>
-    <t>島根県</t>
-  </si>
-  <si>
-    <t>しまね</t>
-  </si>
-  <si>
-    <t>shimane</t>
-  </si>
-  <si>
-    <t>岡山</t>
-  </si>
-  <si>
-    <t>岡山県</t>
-  </si>
-  <si>
-    <t>おかやま</t>
-  </si>
-  <si>
-    <t>okayama</t>
-  </si>
-  <si>
-    <t>広島</t>
-  </si>
-  <si>
-    <t>広島県</t>
-  </si>
-  <si>
-    <t>ひろしま</t>
-  </si>
-  <si>
-    <t>hiroshima</t>
-  </si>
-  <si>
-    <t>山口</t>
-  </si>
-  <si>
-    <t>山口県</t>
-  </si>
-  <si>
-    <t>やまぐち</t>
-  </si>
-  <si>
-    <t>yamaguchi</t>
-  </si>
-  <si>
-    <t>徳島</t>
-  </si>
-  <si>
-    <t>徳島県</t>
-  </si>
-  <si>
-    <t>とくしま</t>
-  </si>
-  <si>
-    <t>tokushima</t>
-  </si>
-  <si>
-    <t>香川</t>
-  </si>
-  <si>
-    <t>香川県</t>
-  </si>
-  <si>
-    <t>かがわ</t>
-  </si>
-  <si>
-    <t>kagawa</t>
-  </si>
-  <si>
-    <t>愛媛</t>
-  </si>
-  <si>
-    <t>愛媛県</t>
-  </si>
-  <si>
-    <t>えひめ</t>
-  </si>
-  <si>
-    <t>ehime</t>
-  </si>
-  <si>
-    <t>高知</t>
-  </si>
-  <si>
-    <t>高知県</t>
-  </si>
-  <si>
-    <t>こうち</t>
-  </si>
-  <si>
-    <t>kochi</t>
-  </si>
-  <si>
-    <t>福岡</t>
-  </si>
-  <si>
-    <t>福岡県</t>
-  </si>
-  <si>
-    <t>ふくおか</t>
-  </si>
-  <si>
-    <t>fukuoka</t>
-  </si>
-  <si>
-    <t>佐賀</t>
-  </si>
-  <si>
-    <t>佐賀県</t>
-  </si>
-  <si>
-    <t>さが</t>
-  </si>
-  <si>
-    <t>saga</t>
-  </si>
-  <si>
-    <t>長崎</t>
-  </si>
-  <si>
-    <t>長崎県</t>
-  </si>
-  <si>
-    <t>ながさき</t>
-  </si>
-  <si>
-    <t>nagasaki</t>
-  </si>
-  <si>
-    <t>熊本</t>
-  </si>
-  <si>
-    <t>熊本県</t>
-  </si>
-  <si>
-    <t>くまもと</t>
-  </si>
-  <si>
-    <t>kumamoto</t>
-  </si>
-  <si>
-    <t>大分</t>
-  </si>
-  <si>
-    <t>大分県</t>
-  </si>
-  <si>
-    <t>おおいた</t>
-  </si>
-  <si>
-    <t>oita</t>
-  </si>
-  <si>
-    <t>宮崎</t>
-  </si>
-  <si>
-    <t>宮崎県</t>
-  </si>
-  <si>
-    <t>みやざき</t>
-  </si>
-  <si>
-    <t>miyazaki</t>
-  </si>
-  <si>
-    <t>鹿児島</t>
-  </si>
-  <si>
-    <t>鹿児島県</t>
-  </si>
-  <si>
-    <t>かごしま</t>
-  </si>
-  <si>
-    <t>kagoshima</t>
-  </si>
-  <si>
-    <t>沖縄</t>
-  </si>
-  <si>
-    <t>沖縄県</t>
-  </si>
-  <si>
-    <t>おきなわ</t>
-  </si>
-  <si>
-    <t>okinawa</t>
-  </si>
-  <si>
-    <t>県庁所在地 市区町村なし</t>
-  </si>
-  <si>
-    <t>札幌</t>
-  </si>
-  <si>
-    <t>盛岡</t>
-  </si>
-  <si>
-    <t>仙台</t>
-  </si>
-  <si>
-    <t>水戸</t>
-  </si>
-  <si>
-    <t>宇都宮</t>
-  </si>
-  <si>
-    <t>前橋</t>
-  </si>
-  <si>
-    <t>新宿</t>
-  </si>
-  <si>
-    <t>横浜</t>
-  </si>
-  <si>
-    <t>金沢</t>
-  </si>
-  <si>
-    <t>甲府</t>
-  </si>
-  <si>
-    <t>名古屋</t>
-  </si>
-  <si>
-    <t>津</t>
-  </si>
-  <si>
-    <t>大津</t>
-  </si>
-  <si>
-    <t>神戸</t>
-  </si>
-  <si>
-    <t>松江</t>
-  </si>
-  <si>
-    <t>高松</t>
-  </si>
-  <si>
-    <t>松山</t>
-  </si>
-  <si>
-    <t>那覇</t>
-  </si>
-  <si>
-    <t>札幌市</t>
-  </si>
-  <si>
-    <t>青森市</t>
-  </si>
-  <si>
-    <t>盛岡市</t>
-  </si>
-  <si>
-    <t>仙台市</t>
-  </si>
-  <si>
-    <t>秋田市</t>
-  </si>
-  <si>
-    <t>山形市</t>
-  </si>
-  <si>
-    <t>福島市</t>
-  </si>
-  <si>
-    <t>水戸市</t>
-  </si>
-  <si>
-    <t>宇都宮市</t>
-  </si>
-  <si>
-    <t>前橋市</t>
-  </si>
-  <si>
-    <t>さいたま市</t>
-  </si>
-  <si>
-    <t>千葉市</t>
-  </si>
-  <si>
-    <t>新宿区</t>
-  </si>
-  <si>
-    <t>横浜市</t>
-  </si>
-  <si>
-    <t>新潟市</t>
-  </si>
-  <si>
-    <t>富山市</t>
-  </si>
-  <si>
-    <t>金沢市</t>
-  </si>
-  <si>
-    <t>福井市</t>
-  </si>
-  <si>
-    <t>甲府市</t>
-  </si>
-  <si>
-    <t>長野市</t>
-  </si>
-  <si>
-    <t>岐阜市</t>
-  </si>
-  <si>
-    <t>静岡市</t>
-  </si>
-  <si>
-    <t>名古屋市</t>
-  </si>
-  <si>
-    <t>津市</t>
-  </si>
-  <si>
-    <t>大津市</t>
-  </si>
-  <si>
-    <t>京都市</t>
-  </si>
-  <si>
-    <t>大阪市</t>
-  </si>
-  <si>
-    <t>神戸市</t>
-  </si>
-  <si>
-    <t>奈良市</t>
-  </si>
-  <si>
-    <t>和歌山市</t>
-  </si>
-  <si>
-    <t>鳥取市</t>
-  </si>
-  <si>
-    <t>松江市</t>
-  </si>
-  <si>
-    <t>岡山市</t>
-  </si>
-  <si>
-    <t>広島市</t>
-  </si>
-  <si>
-    <t>山口市</t>
-  </si>
-  <si>
-    <t>徳島市</t>
-  </si>
-  <si>
-    <t>高松市</t>
-  </si>
-  <si>
-    <t>松山市</t>
-  </si>
-  <si>
-    <t>高知市</t>
-  </si>
-  <si>
-    <t>福岡市</t>
-  </si>
-  <si>
-    <t>佐賀市</t>
-  </si>
-  <si>
-    <t>長崎市</t>
-  </si>
-  <si>
-    <t>熊本市</t>
-  </si>
-  <si>
-    <t>大分市</t>
-  </si>
-  <si>
-    <t>宮崎市</t>
-  </si>
-  <si>
-    <t>鹿児島市</t>
-  </si>
-  <si>
-    <t>那覇市</t>
-  </si>
-  <si>
-    <t>県庁所在地 ひらがな</t>
-  </si>
-  <si>
-    <t>さっぽろ</t>
-  </si>
-  <si>
-    <t>もりおか</t>
-  </si>
-  <si>
-    <t>せんだい</t>
-  </si>
-  <si>
-    <t>みと</t>
-  </si>
-  <si>
-    <t>うつのみや</t>
-  </si>
-  <si>
-    <t>まえばし</t>
-  </si>
-  <si>
-    <t>しんじゅく</t>
-  </si>
-  <si>
-    <t>よこはま</t>
-  </si>
-  <si>
-    <t>かなざわ</t>
-  </si>
-  <si>
-    <t>こうふ</t>
-  </si>
-  <si>
-    <t>なごや</t>
-  </si>
-  <si>
-    <t>つ</t>
-  </si>
-  <si>
-    <t>おおつ</t>
-  </si>
-  <si>
-    <t>こうべ</t>
-  </si>
-  <si>
-    <t>わかやま</t>
-  </si>
-  <si>
-    <t>まつえ</t>
-  </si>
-  <si>
-    <t>たかまつ</t>
-  </si>
-  <si>
-    <t>まつやま</t>
-  </si>
-  <si>
-    <t>なは</t>
-  </si>
-  <si>
-    <t>県庁所在地 ローマ字</t>
-  </si>
-  <si>
-    <t>sapporo</t>
-  </si>
-  <si>
-    <t>morioka</t>
-  </si>
-  <si>
-    <t>sendai</t>
-  </si>
-  <si>
-    <t>mito</t>
-  </si>
-  <si>
-    <t>utsunomiya</t>
-  </si>
-  <si>
-    <t>maebashi</t>
-  </si>
-  <si>
-    <t>shinjuku</t>
-  </si>
-  <si>
-    <t>yokohama</t>
-  </si>
-  <si>
-    <t>kanazawa</t>
-  </si>
-  <si>
-    <t>kofu</t>
-  </si>
-  <si>
-    <t>nagoya</t>
-  </si>
-  <si>
-    <t>tsu</t>
-  </si>
-  <si>
-    <t>otsu</t>
-  </si>
-  <si>
-    <t>kyouto</t>
-  </si>
-  <si>
-    <t>koube</t>
-  </si>
-  <si>
-    <t>matsue</t>
-  </si>
-  <si>
-    <t>takamatsu</t>
-  </si>
-  <si>
-    <t>matsuyama</t>
-  </si>
-  <si>
-    <t>naha</t>
-  </si>
-  <si>
-    <t>県庁所在地 市区町村あり</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1915,7 +1916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -1938,25 +1939,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1964,28 +1965,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1993,28 +1994,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2022,28 +2023,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2051,28 +2052,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2080,28 +2081,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2109,28 +2110,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2138,28 +2139,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2167,28 +2168,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2196,28 +2197,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2225,28 +2226,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2254,28 +2255,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2283,28 +2284,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2312,28 +2313,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2341,28 +2342,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2370,28 +2371,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2399,28 +2400,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2428,28 +2429,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2457,28 +2458,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2486,28 +2487,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2515,28 +2516,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2544,28 +2545,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2573,28 +2574,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2602,28 +2603,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2631,28 +2632,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2660,28 +2661,28 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2689,28 +2690,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2718,28 +2719,28 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2747,28 +2748,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2776,28 +2777,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2805,28 +2806,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2834,28 +2835,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2863,28 +2864,28 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -2892,28 +2893,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -2921,28 +2922,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H35" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -2950,28 +2951,28 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -2979,28 +2980,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="F37" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -3008,28 +3009,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="F38" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -3037,28 +3038,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -3066,28 +3067,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="F40" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -3095,28 +3096,28 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H41" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -3124,28 +3125,28 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H42" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -3153,28 +3154,28 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="F43" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H43" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -3182,28 +3183,28 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="F44" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H44" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -3211,28 +3212,28 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="F45" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H45" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -3240,28 +3241,28 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="F46" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H46" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -3269,28 +3270,28 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="F47" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H47" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -3298,28 +3299,28 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="F48" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -3350,16 +3351,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3367,16 +3368,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3384,16 +3385,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3401,16 +3402,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3418,16 +3419,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3435,16 +3436,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3452,16 +3453,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3469,16 +3470,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3486,16 +3487,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3503,16 +3504,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3520,16 +3521,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3537,16 +3538,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -3554,16 +3555,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3571,16 +3572,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3588,16 +3589,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -3605,16 +3606,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3622,16 +3623,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3639,16 +3640,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3656,16 +3657,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3673,16 +3674,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -3690,16 +3691,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3707,16 +3708,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -3724,16 +3725,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -3741,16 +3742,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -3758,16 +3759,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -3775,16 +3776,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -3792,16 +3793,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -3809,16 +3810,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -3826,16 +3827,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3843,16 +3844,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -3860,16 +3861,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -3877,16 +3878,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -3894,16 +3895,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -3911,16 +3912,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -3928,16 +3929,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -3945,16 +3946,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -3962,16 +3963,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -3979,16 +3980,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -3996,16 +3997,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -4013,16 +4014,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -4030,16 +4031,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -4047,16 +4048,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -4064,16 +4065,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -4081,16 +4082,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -4098,16 +4099,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -4115,16 +4116,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -4132,16 +4133,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -4149,16 +4150,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
